--- a/xlsx/孙武_intext.xlsx
+++ b/xlsx/孙武_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
   <si>
     <t>孙武</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E6%AD%A6_(%E6%B0%91%E5%9C%8B)</t>
   </si>
   <si>
-    <t>孫武 (民國)</t>
+    <t>孙武 (民国)</t>
   </si>
   <si>
     <t>政策_政策_管理_孙武</t>
@@ -95,13 +95,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E7%A7%8B%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>春秋時期</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E8%91%97%E4%BD%9C</t>
   </si>
   <si>
-    <t>军事著作</t>
+    <t>军事着作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E4%B8%9C%E7%9C%81</t>
@@ -125,7 +122,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E8%AA%9E_(%E6%9B%B8)</t>
   </si>
   <si>
-    <t>國語 (書)</t>
+    <t>国语 (书)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E5%AD%90%E8%83%A5</t>
@@ -137,7 +134,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E8%87%8F</t>
   </si>
   <si>
-    <t>孫臏</t>
+    <t>孙膑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E9%A9%AC%E8%BF%81</t>
@@ -161,9 +158,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%9C%8B</t>
   </si>
   <si>
-    <t>衛國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E5%AD%99</t>
   </si>
   <si>
@@ -209,13 +203,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E5%9C%8B</t>
   </si>
   <si>
-    <t>吳國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E8%98%87</t>
   </si>
   <si>
-    <t>江蘇</t>
+    <t>江苏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%B9%E7%AA%BF%E5%B1%B1</t>
@@ -227,19 +218,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E5%AD%90%E5%85%B5%E6%B3%95</t>
   </si>
   <si>
-    <t>孫子兵法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%94%E9%96%AD</t>
   </si>
   <si>
-    <t>闔閭</t>
+    <t>阖闾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E7%8E%8B%E5%83%9A</t>
   </si>
   <si>
-    <t>吳王僚</t>
+    <t>吴王僚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B3%E4%BD%8D</t>
@@ -257,19 +245,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%A8%98</t>
   </si>
   <si>
-    <t>史記</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E8%B5%B7</t>
   </si>
   <si>
-    <t>吳起</t>
+    <t>吴起</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AE%E5%A5%B3</t>
   </si>
   <si>
-    <t>宮女</t>
+    <t>宫女</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%92%E9%95%BF</t>
@@ -281,7 +266,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%9A%E5%9C%8B</t>
   </si>
   <si>
-    <t>楚國</t>
+    <t>楚国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%92%9F%E5%90%BE%E5%9B%BD</t>
@@ -293,19 +278,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%90%E5%9C%8B</t>
   </si>
   <si>
-    <t>徐國</t>
+    <t>徐国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%A1%E5%9C%8B</t>
   </si>
   <si>
-    <t>蔡國</t>
+    <t>蔡国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E5%9C%8B</t>
   </si>
   <si>
-    <t>唐國</t>
+    <t>唐国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AB%E6%A6%82</t>
@@ -335,31 +320,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%B0%B4</t>
   </si>
   <si>
-    <t>漢水</t>
+    <t>汉水</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%88%A5%E5%B1%B1</t>
   </si>
   <si>
-    <t>大別山</t>
+    <t>大别山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E8%88%89%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>柏舉之戰</t>
+    <t>柏举之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>鄭國</t>
+    <t>郑国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%9F%8E</t>
   </si>
   <si>
-    <t>麥城</t>
+    <t>麦城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E9%99%B5</t>
@@ -371,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%A8%E5%9C%8B</t>
   </si>
   <si>
-    <t>隨國</t>
+    <t>随国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8E%9F</t>
@@ -395,19 +380,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%A6%E5%9C%8B</t>
   </si>
   <si>
-    <t>秦國</t>
+    <t>秦国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%9C%8B</t>
   </si>
   <si>
-    <t>越國</t>
+    <t>越国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%BE%E8%B8%90</t>
   </si>
   <si>
-    <t>勾踐</t>
+    <t>勾践</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AB%E5%B7%AE</t>
@@ -419,7 +404,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E6%B1%A0</t>
   </si>
   <si>
-    <t>黃池</t>
+    <t>黄池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E7%BB%9D%E4%B9%A6</t>
@@ -431,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E8%B6%8A%E6%98%A5%E7%A7%8B</t>
   </si>
   <si>
-    <t>吳越春秋</t>
+    <t>吴越春秋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%99%E6%AD%A6_(%E7%94%B5%E8%A7%86%E5%89%A7)</t>
@@ -491,13 +476,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%9A%E9%9A%9B%E6%81%86</t>
   </si>
   <si>
-    <t>姚際恆</t>
+    <t>姚际恒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E6%8C%AF%E5%AD%AB</t>
   </si>
   <si>
-    <t>陳振孫</t>
+    <t>陈振孙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E6%BF%82</t>
@@ -509,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E6%87%89%E9%BA%9F</t>
   </si>
   <si>
-    <t>胡應麟</t>
+    <t>胡应麟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%99%E6%98%9F%E8%A1%8D</t>
@@ -521,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -539,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -557,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -581,13 +566,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1312,7 +1297,7 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1338,10 +1323,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1367,10 +1352,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1425,10 +1410,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
         <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1454,10 +1439,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
         <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1483,10 +1468,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
         <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1512,10 +1497,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>9</v>
@@ -1541,10 +1526,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1570,10 +1555,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1599,10 +1584,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1628,10 +1613,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1657,10 +1642,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1686,10 +1671,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1715,10 +1700,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1744,10 +1729,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1773,10 +1758,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1802,10 +1787,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1831,10 +1816,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1860,10 +1845,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1889,10 +1874,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="G33" t="n">
         <v>10</v>
@@ -1918,10 +1903,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -1947,10 +1932,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1976,10 +1961,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="G36" t="n">
         <v>4</v>
@@ -2005,10 +1990,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G37" t="n">
         <v>9</v>
@@ -2034,10 +2019,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2063,10 +2048,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2092,10 +2077,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2121,10 +2106,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G41" t="n">
         <v>4</v>
@@ -2150,10 +2135,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2179,10 +2164,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G43" t="n">
         <v>3</v>
@@ -2208,10 +2193,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -2237,10 +2222,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G45" t="n">
         <v>14</v>
@@ -2266,10 +2251,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2295,10 +2280,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2324,10 +2309,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2353,10 +2338,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2382,10 +2367,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G50" t="n">
         <v>3</v>
@@ -2411,10 +2396,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2440,10 +2425,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G52" t="n">
         <v>6</v>
@@ -2469,10 +2454,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G53" t="n">
         <v>6</v>
@@ -2498,10 +2483,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -2527,10 +2512,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2556,10 +2541,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G56" t="n">
         <v>4</v>
@@ -2585,10 +2570,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2614,10 +2599,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2643,10 +2628,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F59" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -2672,10 +2657,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -2701,10 +2686,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2730,10 +2715,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2759,10 +2744,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2788,10 +2773,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2817,10 +2802,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2846,10 +2831,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2875,10 +2860,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -2904,10 +2889,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G68" t="n">
         <v>5</v>
@@ -2933,10 +2918,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2962,10 +2947,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2991,10 +2976,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3020,10 +3005,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G72" t="n">
         <v>13</v>
@@ -3049,10 +3034,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3078,10 +3063,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3107,10 +3092,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G75" t="n">
         <v>7</v>
@@ -3136,10 +3121,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3165,10 +3150,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3194,10 +3179,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3223,10 +3208,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3252,10 +3237,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3281,10 +3266,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3310,10 +3295,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3339,10 +3324,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3368,10 +3353,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3397,10 +3382,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3426,10 +3411,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -3455,10 +3440,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3484,10 +3469,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3513,10 +3498,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3542,10 +3527,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3571,10 +3556,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3600,10 +3585,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3629,10 +3614,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3658,10 +3643,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3687,10 +3672,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3716,10 +3701,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3745,10 +3730,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3774,10 +3759,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
